--- a/lists/stations-derbyshire.xlsx
+++ b/lists/stations-derbyshire.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="75" windowWidth="11460" windowHeight="2925"/>
@@ -15,6 +15,88 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>nacnudus</author>
+  </authors>
+  <commentList>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nacnudus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Wholetime</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nacnudus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Retained Duty System?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nacnudus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Day staffing</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="258">
   <si>
@@ -799,7 +881,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -970,6 +1052,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1736,24 +1831,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -3508,6 +3603,7 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
